--- a/template/工作排期简易模板.xlsx
+++ b/template/工作排期简易模板.xlsx
@@ -5,17 +5,18 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panshiqi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\doc\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="xxx功能开发" sheetId="9" r:id="rId1"/>
+    <sheet name="xxx学习计划" sheetId="10" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">xxx功能开发!$B$1:$CW$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">xxx功能开发!$A$1:$CV$24</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="39">
   <si>
     <t>模块</t>
   </si>
@@ -135,6 +136,38 @@
   </si>
   <si>
     <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期(天)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习xxx技术使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3994,9 +4027,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4043,55 +4073,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1207">
@@ -5603,695 +5636,695 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DK24"/>
+  <dimension ref="A1:DJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="9" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="53.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="4" customWidth="1"/>
-    <col min="6" max="6" width="7.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="9" customWidth="1"/>
-    <col min="10" max="21" width="3.625" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="2.625" style="11" customWidth="1"/>
-    <col min="23" max="25" width="2.625" style="18" customWidth="1"/>
-    <col min="26" max="28" width="2.625" style="11" customWidth="1"/>
-    <col min="29" max="34" width="2.625" style="18" customWidth="1"/>
-    <col min="35" max="36" width="2.625" style="11" customWidth="1"/>
-    <col min="37" max="41" width="2.625" style="18" customWidth="1"/>
-    <col min="42" max="43" width="2.625" style="11" customWidth="1"/>
-    <col min="44" max="49" width="2.625" style="18" customWidth="1"/>
-    <col min="50" max="50" width="2.875" style="11" customWidth="1"/>
-    <col min="51" max="51" width="3.25" style="11" customWidth="1"/>
-    <col min="52" max="52" width="3.375" style="11" customWidth="1"/>
-    <col min="53" max="53" width="2.875" style="18" customWidth="1"/>
-    <col min="54" max="54" width="3.25" style="18" customWidth="1"/>
-    <col min="55" max="55" width="2.875" style="18" customWidth="1"/>
-    <col min="56" max="56" width="3.25" style="11" customWidth="1"/>
-    <col min="57" max="57" width="3.5" style="11" customWidth="1"/>
-    <col min="58" max="58" width="3" style="18" customWidth="1"/>
-    <col min="59" max="59" width="3.25" style="18" customWidth="1"/>
-    <col min="60" max="60" width="3.125" style="18" customWidth="1"/>
-    <col min="61" max="61" width="3" style="18" customWidth="1"/>
-    <col min="62" max="62" width="3.25" style="18" customWidth="1"/>
-    <col min="63" max="63" width="2.75" style="11" customWidth="1"/>
-    <col min="64" max="64" width="2.875" style="11" customWidth="1"/>
-    <col min="65" max="65" width="3.25" style="18" customWidth="1"/>
-    <col min="66" max="66" width="3.125" style="18" customWidth="1"/>
-    <col min="67" max="67" width="3" style="18" customWidth="1"/>
-    <col min="68" max="68" width="2.875" style="18" customWidth="1"/>
-    <col min="69" max="69" width="3.125" style="18" customWidth="1"/>
-    <col min="70" max="70" width="3.375" style="11" customWidth="1"/>
-    <col min="71" max="71" width="2.875" style="11" customWidth="1"/>
-    <col min="72" max="76" width="2.625" style="18" customWidth="1"/>
-    <col min="77" max="78" width="2.625" style="11" customWidth="1"/>
-    <col min="79" max="103" width="2.625" style="18" customWidth="1"/>
-    <col min="104" max="115" width="2.625" style="2" customWidth="1"/>
-    <col min="116" max="16384" width="3.125" style="2"/>
+    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="53.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="8" customWidth="1"/>
+    <col min="9" max="20" width="3.625" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="2.625" style="10" customWidth="1"/>
+    <col min="22" max="24" width="2.625" style="17" customWidth="1"/>
+    <col min="25" max="27" width="2.625" style="10" customWidth="1"/>
+    <col min="28" max="33" width="2.625" style="17" customWidth="1"/>
+    <col min="34" max="35" width="2.625" style="10" customWidth="1"/>
+    <col min="36" max="40" width="2.625" style="17" customWidth="1"/>
+    <col min="41" max="42" width="2.625" style="10" customWidth="1"/>
+    <col min="43" max="48" width="2.625" style="17" customWidth="1"/>
+    <col min="49" max="49" width="2.875" style="10" customWidth="1"/>
+    <col min="50" max="50" width="3.25" style="10" customWidth="1"/>
+    <col min="51" max="51" width="3.375" style="10" customWidth="1"/>
+    <col min="52" max="52" width="2.875" style="17" customWidth="1"/>
+    <col min="53" max="53" width="3.25" style="17" customWidth="1"/>
+    <col min="54" max="54" width="2.875" style="17" customWidth="1"/>
+    <col min="55" max="55" width="3.25" style="10" customWidth="1"/>
+    <col min="56" max="56" width="3.5" style="10" customWidth="1"/>
+    <col min="57" max="57" width="3" style="17" customWidth="1"/>
+    <col min="58" max="58" width="3.25" style="17" customWidth="1"/>
+    <col min="59" max="59" width="3.125" style="17" customWidth="1"/>
+    <col min="60" max="60" width="3" style="17" customWidth="1"/>
+    <col min="61" max="61" width="3.25" style="17" customWidth="1"/>
+    <col min="62" max="62" width="2.75" style="10" customWidth="1"/>
+    <col min="63" max="63" width="2.875" style="10" customWidth="1"/>
+    <col min="64" max="64" width="3.25" style="17" customWidth="1"/>
+    <col min="65" max="65" width="3.125" style="17" customWidth="1"/>
+    <col min="66" max="66" width="3" style="17" customWidth="1"/>
+    <col min="67" max="67" width="2.875" style="17" customWidth="1"/>
+    <col min="68" max="68" width="3.125" style="17" customWidth="1"/>
+    <col min="69" max="69" width="3.375" style="10" customWidth="1"/>
+    <col min="70" max="70" width="2.875" style="10" customWidth="1"/>
+    <col min="71" max="75" width="2.625" style="17" customWidth="1"/>
+    <col min="76" max="77" width="2.625" style="10" customWidth="1"/>
+    <col min="78" max="102" width="2.625" style="17" customWidth="1"/>
+    <col min="103" max="114" width="2.625" style="2" customWidth="1"/>
+    <col min="115" max="16384" width="3.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="F1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="H1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="33" t="s">
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="34"/>
-      <c r="AA1" s="34"/>
-      <c r="AB1" s="34"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="34"/>
-      <c r="AF1" s="34"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="34"/>
-      <c r="AI1" s="34"/>
-      <c r="AJ1" s="34"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="34"/>
-      <c r="AM1" s="34"/>
-      <c r="AN1" s="34"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="34"/>
-      <c r="AQ1" s="34"/>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="34"/>
-      <c r="AU1" s="34"/>
-      <c r="AV1" s="34"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="34"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="36" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="26"/>
+      <c r="AY1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="BA1" s="37"/>
-      <c r="BB1" s="37"/>
-      <c r="BC1" s="37"/>
-      <c r="BD1" s="37"/>
-      <c r="BE1" s="37"/>
-      <c r="BF1" s="37"/>
-      <c r="BG1" s="37"/>
-      <c r="BH1" s="37"/>
-      <c r="BI1" s="37"/>
-      <c r="BJ1" s="37"/>
-      <c r="BK1" s="37"/>
-      <c r="BL1" s="37"/>
-      <c r="BM1" s="37"/>
-      <c r="BN1" s="37"/>
-      <c r="BO1" s="37"/>
-      <c r="BP1" s="37"/>
-      <c r="BQ1" s="37"/>
-      <c r="BR1" s="37"/>
-      <c r="BS1" s="37"/>
-      <c r="BT1" s="37"/>
-      <c r="BU1" s="37"/>
-      <c r="BV1" s="37"/>
-      <c r="BW1" s="37"/>
-      <c r="BX1" s="37"/>
-      <c r="BY1" s="37"/>
-      <c r="BZ1" s="37"/>
-      <c r="CA1" s="37"/>
-      <c r="CB1" s="37"/>
-      <c r="CC1" s="37"/>
-      <c r="CD1" s="38"/>
-      <c r="CE1" s="17"/>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="13"/>
-      <c r="DA1" s="13"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="28"/>
+      <c r="CB1" s="28"/>
+      <c r="CC1" s="29"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="16"/>
+      <c r="CV1" s="16"/>
+      <c r="CW1" s="15"/>
+      <c r="CX1" s="15"/>
+      <c r="CY1" s="12"/>
+      <c r="CZ1" s="12"/>
     </row>
-    <row r="2" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="26"/>
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="33"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="1" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>11</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="O2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AP2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AV2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BA2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BF2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BO2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BP2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BQ2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BR2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BU2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BV2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BW2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BX2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BY2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="CB2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="CC2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="15"/>
+      <c r="CT2" s="15"/>
+      <c r="CU2" s="18"/>
+      <c r="CV2" s="18"/>
+      <c r="CW2" s="15"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+    </row>
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4</v>
+      </c>
+      <c r="M3" s="3">
+        <v>5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1">
+        <v>7</v>
+      </c>
+      <c r="P3" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>9</v>
+      </c>
+      <c r="R3" s="3">
+        <v>10</v>
+      </c>
+      <c r="S3" s="12">
+        <v>11</v>
+      </c>
+      <c r="T3" s="3">
         <v>12</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="U3" s="9">
+        <v>1</v>
+      </c>
+      <c r="V3" s="15">
+        <v>2</v>
+      </c>
+      <c r="W3" s="15">
+        <v>3</v>
+      </c>
+      <c r="X3" s="15">
+        <v>4</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>8</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>9</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>10</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="15">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="15">
         <v>13</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="AH3" s="9">
+        <v>14</v>
+      </c>
+      <c r="AI3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>16</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>17</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>18</v>
+      </c>
+      <c r="AM3" s="15">
+        <v>19</v>
+      </c>
+      <c r="AN3" s="15">
+        <v>20</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>22</v>
+      </c>
+      <c r="AQ3" s="15">
+        <v>23</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>24</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>25</v>
+      </c>
+      <c r="AT3" s="15">
+        <v>26</v>
+      </c>
+      <c r="AU3" s="15">
+        <v>27</v>
+      </c>
+      <c r="AV3" s="15">
+        <v>28</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>29</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AZ3" s="19">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="19">
+        <v>3</v>
+      </c>
+      <c r="BB3" s="19">
+        <v>4</v>
+      </c>
+      <c r="BC3" s="11">
+        <v>5</v>
+      </c>
+      <c r="BD3" s="11">
+        <v>6</v>
+      </c>
+      <c r="BE3" s="19">
         <v>7</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="BF3" s="19">
         <v>8</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="BG3" s="19">
         <v>9</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="BH3" s="19">
         <v>10</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="BI3" s="19">
         <v>11</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="BJ3" s="11">
+        <v>12</v>
+      </c>
+      <c r="BK3" s="11">
+        <v>13</v>
+      </c>
+      <c r="BL3" s="19">
+        <v>14</v>
+      </c>
+      <c r="BM3" s="19">
+        <v>15</v>
+      </c>
+      <c r="BN3" s="19">
+        <v>16</v>
+      </c>
+      <c r="BO3" s="19">
+        <v>17</v>
+      </c>
+      <c r="BP3" s="19">
         <v>18</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="BQ3" s="11">
         <v>19</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="BR3" s="11">
         <v>20</v>
       </c>
-      <c r="Y2" s="16" t="s">
+      <c r="BS3" s="19">
         <v>21</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="BT3" s="19">
         <v>22</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="BU3" s="19">
         <v>23</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="BV3" s="19">
         <v>24</v>
       </c>
-      <c r="AC2" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AM2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AO2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AP2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AR2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AS2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="AT2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="AU2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AZ2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="BA2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="BB2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BE2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BG2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BH2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BJ2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="BK2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BN2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BO2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="BP2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="BR2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BS2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="BT2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="BU2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="BV2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="BW2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="BX2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="BY2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="BZ2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="CA2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="CB2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="CC2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="CD2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16"/>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16"/>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16"/>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="16"/>
-      <c r="CV2" s="19"/>
-      <c r="CW2" s="19"/>
-      <c r="CX2" s="16"/>
-      <c r="CY2" s="16"/>
-      <c r="CZ2" s="13"/>
-      <c r="DA2" s="13"/>
-    </row>
-    <row r="3" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="3">
-        <v>5</v>
-      </c>
-      <c r="O3" s="1">
-        <v>6</v>
-      </c>
-      <c r="P3" s="1">
-        <v>7</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>8</v>
-      </c>
-      <c r="R3" s="3">
-        <v>9</v>
-      </c>
-      <c r="S3" s="3">
-        <v>10</v>
-      </c>
-      <c r="T3" s="13">
-        <v>11</v>
-      </c>
-      <c r="U3" s="3">
-        <v>12</v>
-      </c>
-      <c r="V3" s="10">
-        <v>1</v>
-      </c>
-      <c r="W3" s="16">
-        <v>2</v>
-      </c>
-      <c r="X3" s="16">
-        <v>3</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="10">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="10">
-        <v>6</v>
-      </c>
-      <c r="AB3" s="10">
-        <v>7</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>8</v>
-      </c>
-      <c r="AD3" s="16">
-        <v>9</v>
-      </c>
-      <c r="AE3" s="16">
-        <v>10</v>
-      </c>
-      <c r="AF3" s="16">
-        <v>11</v>
-      </c>
-      <c r="AG3" s="16">
-        <v>12</v>
-      </c>
-      <c r="AH3" s="16">
-        <v>13</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>14</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>15</v>
-      </c>
-      <c r="AK3" s="16">
-        <v>16</v>
-      </c>
-      <c r="AL3" s="16">
-        <v>17</v>
-      </c>
-      <c r="AM3" s="16">
-        <v>18</v>
-      </c>
-      <c r="AN3" s="16">
-        <v>19</v>
-      </c>
-      <c r="AO3" s="16">
-        <v>20</v>
-      </c>
-      <c r="AP3" s="10">
-        <v>21</v>
-      </c>
-      <c r="AQ3" s="10">
-        <v>22</v>
-      </c>
-      <c r="AR3" s="16">
-        <v>23</v>
-      </c>
-      <c r="AS3" s="16">
-        <v>24</v>
-      </c>
-      <c r="AT3" s="16">
+      <c r="BW3" s="19">
         <v>25</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="BX3" s="11">
         <v>26</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="BY3" s="11">
         <v>27</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="BZ3" s="19">
         <v>28</v>
       </c>
-      <c r="AX3" s="10">
+      <c r="CA3" s="19">
         <v>29</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="CB3" s="19">
         <v>30</v>
       </c>
-      <c r="AZ3" s="12">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="20">
-        <v>2</v>
-      </c>
-      <c r="BB3" s="20">
-        <v>3</v>
-      </c>
-      <c r="BC3" s="20">
-        <v>4</v>
-      </c>
-      <c r="BD3" s="12">
-        <v>5</v>
-      </c>
-      <c r="BE3" s="12">
-        <v>6</v>
-      </c>
-      <c r="BF3" s="20">
-        <v>7</v>
-      </c>
-      <c r="BG3" s="20">
-        <v>8</v>
-      </c>
-      <c r="BH3" s="20">
-        <v>9</v>
-      </c>
-      <c r="BI3" s="20">
-        <v>10</v>
-      </c>
-      <c r="BJ3" s="20">
-        <v>11</v>
-      </c>
-      <c r="BK3" s="12">
-        <v>12</v>
-      </c>
-      <c r="BL3" s="12">
-        <v>13</v>
-      </c>
-      <c r="BM3" s="20">
-        <v>14</v>
-      </c>
-      <c r="BN3" s="20">
-        <v>15</v>
-      </c>
-      <c r="BO3" s="20">
-        <v>16</v>
-      </c>
-      <c r="BP3" s="20">
-        <v>17</v>
-      </c>
-      <c r="BQ3" s="20">
-        <v>18</v>
-      </c>
-      <c r="BR3" s="12">
-        <v>19</v>
-      </c>
-      <c r="BS3" s="12">
-        <v>20</v>
-      </c>
-      <c r="BT3" s="20">
-        <v>21</v>
-      </c>
-      <c r="BU3" s="20">
-        <v>22</v>
-      </c>
-      <c r="BV3" s="20">
-        <v>23</v>
-      </c>
-      <c r="BW3" s="20">
-        <v>24</v>
-      </c>
-      <c r="BX3" s="20">
-        <v>25</v>
-      </c>
-      <c r="BY3" s="12">
-        <v>26</v>
-      </c>
-      <c r="BZ3" s="12">
-        <v>27</v>
-      </c>
-      <c r="CA3" s="20">
-        <v>28</v>
-      </c>
-      <c r="CB3" s="20">
-        <v>29</v>
-      </c>
-      <c r="CC3" s="20">
-        <v>30</v>
-      </c>
-      <c r="CD3" s="20">
+      <c r="CC3" s="19">
         <v>31</v>
       </c>
-      <c r="CE3" s="20"/>
-      <c r="CF3" s="20"/>
-      <c r="CG3" s="20"/>
-      <c r="CH3" s="20"/>
-      <c r="CI3" s="20"/>
-      <c r="CJ3" s="20"/>
-      <c r="CK3" s="20"/>
-      <c r="CL3" s="20"/>
-      <c r="CM3" s="20"/>
-      <c r="CN3" s="20"/>
-      <c r="CO3" s="20"/>
-      <c r="CP3" s="20"/>
-      <c r="CQ3" s="20"/>
-      <c r="CR3" s="20"/>
-      <c r="CS3" s="20"/>
-      <c r="CT3" s="20"/>
-      <c r="CU3" s="20"/>
-      <c r="CV3" s="20"/>
-      <c r="CW3" s="20"/>
-      <c r="CX3" s="20"/>
-      <c r="CY3" s="20"/>
+      <c r="CD3" s="19"/>
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="19"/>
+      <c r="CH3" s="19"/>
+      <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
+      <c r="CK3" s="19"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="19"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="19"/>
+      <c r="CP3" s="19"/>
+      <c r="CQ3" s="19"/>
+      <c r="CR3" s="19"/>
+      <c r="CS3" s="19"/>
+      <c r="CT3" s="19"/>
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="19"/>
+      <c r="CX3" s="19"/>
+      <c r="CY3" s="3"/>
       <c r="CZ3" s="3"/>
-      <c r="DA3" s="3"/>
+      <c r="DA3" s="5"/>
       <c r="DB3" s="5"/>
       <c r="DC3" s="5"/>
       <c r="DD3" s="5"/>
@@ -6301,714 +6334,2085 @@
       <c r="DH3" s="5"/>
       <c r="DI3" s="5"/>
       <c r="DJ3" s="5"/>
-      <c r="DK3" s="5"/>
     </row>
-    <row r="4" spans="2:115" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>0.5</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="G4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="9">
+      <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="8" t="s">
+      <c r="U4" s="9"/>
+      <c r="V4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="X4" s="21"/>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AJ4" s="10"/>
-      <c r="AK4" s="16"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="16"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="16"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="16"/>
-      <c r="BS4" s="10"/>
-      <c r="BT4" s="16"/>
-      <c r="BZ4" s="10"/>
-      <c r="CA4" s="16"/>
-      <c r="CG4" s="16"/>
-      <c r="CH4" s="16"/>
-      <c r="CN4" s="16"/>
-      <c r="CO4" s="16"/>
+      <c r="W4" s="20"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="15"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="15"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="15"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="15"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="15"/>
+      <c r="BY4" s="9"/>
+      <c r="BZ4" s="15"/>
+      <c r="CF4" s="15"/>
+      <c r="CG4" s="15"/>
+      <c r="CM4" s="15"/>
+      <c r="CN4" s="15"/>
     </row>
-    <row r="5" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-      <c r="D5" s="4"/>
-      <c r="F5" s="6"/>
-      <c r="J5" s="1"/>
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="6"/>
+      <c r="I5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="16"/>
-      <c r="X5" s="21"/>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AJ5" s="10"/>
-      <c r="AK5" s="16"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="16"/>
-      <c r="AX5" s="10"/>
-      <c r="AY5" s="10"/>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="16"/>
-      <c r="BL5" s="10"/>
-      <c r="BM5" s="16"/>
-      <c r="BS5" s="10"/>
-      <c r="BT5" s="16"/>
-      <c r="BZ5" s="10"/>
-      <c r="CA5" s="16"/>
-      <c r="CG5" s="16"/>
-      <c r="CH5" s="16"/>
-      <c r="CN5" s="16"/>
-      <c r="CO5" s="16"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="20"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="15"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="15"/>
+      <c r="AW5" s="9"/>
+      <c r="AX5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="15"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="15"/>
+      <c r="BR5" s="9"/>
+      <c r="BS5" s="15"/>
+      <c r="BY5" s="9"/>
+      <c r="BZ5" s="15"/>
+      <c r="CF5" s="15"/>
+      <c r="CG5" s="15"/>
+      <c r="CM5" s="15"/>
+      <c r="CN5" s="15"/>
     </row>
-    <row r="6" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-      <c r="D6" s="4"/>
-      <c r="F6" s="6"/>
-      <c r="J6" s="1"/>
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="16"/>
-      <c r="Y6" s="21"/>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AJ6" s="10"/>
-      <c r="AK6" s="16"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="16"/>
-      <c r="AX6" s="10"/>
-      <c r="AY6" s="10"/>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="16"/>
-      <c r="BL6" s="10"/>
-      <c r="BM6" s="16"/>
-      <c r="BS6" s="10"/>
-      <c r="BT6" s="16"/>
-      <c r="BZ6" s="10"/>
-      <c r="CA6" s="16"/>
-      <c r="CG6" s="16"/>
-      <c r="CH6" s="16"/>
-      <c r="CN6" s="16"/>
-      <c r="CO6" s="16"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="15"/>
+      <c r="X6" s="20"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="15"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="15"/>
+      <c r="AW6" s="9"/>
+      <c r="AX6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="15"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="15"/>
+      <c r="BR6" s="9"/>
+      <c r="BS6" s="15"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="15"/>
+      <c r="CF6" s="15"/>
+      <c r="CG6" s="15"/>
+      <c r="CM6" s="15"/>
+      <c r="CN6" s="15"/>
     </row>
-    <row r="7" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="F7" s="6"/>
-      <c r="J7" s="1"/>
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="6"/>
+      <c r="I7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="16"/>
-      <c r="Y7" s="21"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AJ7" s="10"/>
-      <c r="AK7" s="16"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="16"/>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="10"/>
-      <c r="BE7" s="10"/>
-      <c r="BF7" s="16"/>
-      <c r="BL7" s="10"/>
-      <c r="BM7" s="16"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="16"/>
-      <c r="BZ7" s="10"/>
-      <c r="CA7" s="16"/>
-      <c r="CG7" s="16"/>
-      <c r="CH7" s="16"/>
-      <c r="CN7" s="16"/>
-      <c r="CO7" s="16"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="15"/>
+      <c r="X7" s="20"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="15"/>
+      <c r="AP7" s="9"/>
+      <c r="AQ7" s="15"/>
+      <c r="AW7" s="9"/>
+      <c r="AX7" s="9"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="15"/>
+      <c r="BK7" s="9"/>
+      <c r="BL7" s="15"/>
+      <c r="BR7" s="9"/>
+      <c r="BS7" s="15"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="15"/>
+      <c r="CF7" s="15"/>
+      <c r="CG7" s="15"/>
+      <c r="CM7" s="15"/>
+      <c r="CN7" s="15"/>
     </row>
-    <row r="8" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="6"/>
-      <c r="J8" s="1"/>
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="I8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="16"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="22"/>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AJ8" s="10"/>
-      <c r="AK8" s="16"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="16"/>
-      <c r="AX8" s="10"/>
-      <c r="AY8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="16"/>
-      <c r="BL8" s="10"/>
-      <c r="BM8" s="16"/>
-      <c r="BS8" s="10"/>
-      <c r="BT8" s="16"/>
-      <c r="BZ8" s="10"/>
-      <c r="CA8" s="16"/>
-      <c r="CG8" s="16"/>
-      <c r="CH8" s="16"/>
-      <c r="CN8" s="16"/>
-      <c r="CO8" s="16"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="15"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="21"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="15"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="15"/>
+      <c r="AW8" s="9"/>
+      <c r="AX8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="15"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="15"/>
+      <c r="BR8" s="9"/>
+      <c r="BS8" s="15"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="15"/>
+      <c r="CF8" s="15"/>
+      <c r="CG8" s="15"/>
+      <c r="CM8" s="15"/>
+      <c r="CN8" s="15"/>
     </row>
-    <row r="9" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="F9" s="6"/>
-      <c r="J9" s="1"/>
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="E9" s="6"/>
+      <c r="I9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="16"/>
-      <c r="Z9" s="22"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="16"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="16"/>
-      <c r="AX9" s="10"/>
-      <c r="AY9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="16"/>
-      <c r="BL9" s="10"/>
-      <c r="BM9" s="16"/>
-      <c r="BS9" s="10"/>
-      <c r="BT9" s="16"/>
-      <c r="BZ9" s="10"/>
-      <c r="CA9" s="16"/>
-      <c r="CG9" s="16"/>
-      <c r="CH9" s="16"/>
-      <c r="CN9" s="16"/>
-      <c r="CO9" s="16"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="15"/>
+      <c r="Y9" s="21"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="15"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="15"/>
+      <c r="AW9" s="9"/>
+      <c r="AX9" s="9"/>
+      <c r="BD9" s="9"/>
+      <c r="BE9" s="15"/>
+      <c r="BK9" s="9"/>
+      <c r="BL9" s="15"/>
+      <c r="BR9" s="9"/>
+      <c r="BS9" s="15"/>
+      <c r="BY9" s="9"/>
+      <c r="BZ9" s="15"/>
+      <c r="CF9" s="15"/>
+      <c r="CG9" s="15"/>
+      <c r="CM9" s="15"/>
+      <c r="CN9" s="15"/>
     </row>
-    <row r="10" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="6"/>
-      <c r="J10" s="1"/>
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="E10" s="6"/>
+      <c r="I10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="16"/>
-      <c r="AA10" s="22"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AJ10" s="10"/>
-      <c r="AK10" s="16"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="16"/>
-      <c r="AX10" s="10"/>
-      <c r="AY10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="16"/>
-      <c r="BL10" s="10"/>
-      <c r="BM10" s="16"/>
-      <c r="BS10" s="10"/>
-      <c r="BT10" s="16"/>
-      <c r="BZ10" s="10"/>
-      <c r="CA10" s="16"/>
-      <c r="CG10" s="16"/>
-      <c r="CH10" s="16"/>
-      <c r="CN10" s="16"/>
-      <c r="CO10" s="16"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="15"/>
+      <c r="Z10" s="21"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="15"/>
+      <c r="AP10" s="9"/>
+      <c r="AQ10" s="15"/>
+      <c r="AW10" s="9"/>
+      <c r="AX10" s="9"/>
+      <c r="BD10" s="9"/>
+      <c r="BE10" s="15"/>
+      <c r="BK10" s="9"/>
+      <c r="BL10" s="15"/>
+      <c r="BR10" s="9"/>
+      <c r="BS10" s="15"/>
+      <c r="BY10" s="9"/>
+      <c r="BZ10" s="15"/>
+      <c r="CF10" s="15"/>
+      <c r="CG10" s="15"/>
+      <c r="CM10" s="15"/>
+      <c r="CN10" s="15"/>
     </row>
-    <row r="11" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="F11" s="6"/>
-      <c r="J11" s="1"/>
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="I11" s="1"/>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="16"/>
-      <c r="AA11" s="22"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AJ11" s="10"/>
-      <c r="AK11" s="16"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="16"/>
-      <c r="AX11" s="10"/>
-      <c r="AY11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="16"/>
-      <c r="BL11" s="10"/>
-      <c r="BM11" s="16"/>
-      <c r="BS11" s="10"/>
-      <c r="BT11" s="16"/>
-      <c r="BZ11" s="10"/>
-      <c r="CA11" s="16"/>
-      <c r="CG11" s="16"/>
-      <c r="CH11" s="16"/>
-      <c r="CN11" s="16"/>
-      <c r="CO11" s="16"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="15"/>
+      <c r="Z11" s="21"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="15"/>
+      <c r="AP11" s="9"/>
+      <c r="AQ11" s="15"/>
+      <c r="AW11" s="9"/>
+      <c r="AX11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="15"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="15"/>
+      <c r="BR11" s="9"/>
+      <c r="BS11" s="15"/>
+      <c r="BY11" s="9"/>
+      <c r="BZ11" s="15"/>
+      <c r="CF11" s="15"/>
+      <c r="CG11" s="15"/>
+      <c r="CM11" s="15"/>
+      <c r="CN11" s="15"/>
     </row>
-    <row r="12" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="F12" s="6"/>
-      <c r="J12" s="1"/>
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="I12" s="1"/>
+      <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="16"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AJ12" s="10"/>
-      <c r="AK12" s="16"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="16"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="16"/>
-      <c r="BL12" s="10"/>
-      <c r="BM12" s="16"/>
-      <c r="BS12" s="10"/>
-      <c r="BT12" s="16"/>
-      <c r="BZ12" s="10"/>
-      <c r="CA12" s="16"/>
-      <c r="CG12" s="16"/>
-      <c r="CH12" s="16"/>
-      <c r="CN12" s="16"/>
-      <c r="CO12" s="16"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="15"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="15"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="15"/>
+      <c r="AP12" s="9"/>
+      <c r="AQ12" s="15"/>
+      <c r="AW12" s="9"/>
+      <c r="AX12" s="9"/>
+      <c r="BD12" s="9"/>
+      <c r="BE12" s="15"/>
+      <c r="BK12" s="9"/>
+      <c r="BL12" s="15"/>
+      <c r="BR12" s="9"/>
+      <c r="BS12" s="15"/>
+      <c r="BY12" s="9"/>
+      <c r="BZ12" s="15"/>
+      <c r="CF12" s="15"/>
+      <c r="CG12" s="15"/>
+      <c r="CM12" s="15"/>
+      <c r="CN12" s="15"/>
     </row>
-    <row r="13" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="J13" s="1"/>
+    <row r="13" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="I13" s="1"/>
+      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="21"/>
-      <c r="Y13" s="21"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AJ13" s="10"/>
-      <c r="AK13" s="16"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="16"/>
-      <c r="AX13" s="10"/>
-      <c r="AY13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="16"/>
-      <c r="BL13" s="10"/>
-      <c r="BM13" s="16"/>
-      <c r="BS13" s="10"/>
-      <c r="BT13" s="16"/>
-      <c r="BZ13" s="10"/>
-      <c r="CA13" s="16"/>
-      <c r="CG13" s="16"/>
-      <c r="CH13" s="16"/>
-      <c r="CN13" s="16"/>
-      <c r="CO13" s="16"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="15"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="15"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="15"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="15"/>
+      <c r="BK13" s="9"/>
+      <c r="BL13" s="15"/>
+      <c r="BR13" s="9"/>
+      <c r="BS13" s="15"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="15"/>
+      <c r="CF13" s="15"/>
+      <c r="CG13" s="15"/>
+      <c r="CM13" s="15"/>
+      <c r="CN13" s="15"/>
     </row>
-    <row r="14" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="F14" s="6"/>
-      <c r="J14" s="1"/>
+    <row r="14" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="I14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="21"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
       <c r="Y14" s="21"/>
-      <c r="Z14" s="22"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="16"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="16"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="16"/>
-      <c r="BL14" s="10"/>
-      <c r="BM14" s="16"/>
-      <c r="BS14" s="10"/>
-      <c r="BT14" s="16"/>
-      <c r="BZ14" s="10"/>
-      <c r="CA14" s="16"/>
-      <c r="CG14" s="16"/>
-      <c r="CH14" s="16"/>
-      <c r="CN14" s="16"/>
-      <c r="CO14" s="16"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="15"/>
+      <c r="AP14" s="9"/>
+      <c r="AQ14" s="15"/>
+      <c r="AW14" s="9"/>
+      <c r="AX14" s="9"/>
+      <c r="BD14" s="9"/>
+      <c r="BE14" s="15"/>
+      <c r="BK14" s="9"/>
+      <c r="BL14" s="15"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="15"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="15"/>
+      <c r="CF14" s="15"/>
+      <c r="CG14" s="15"/>
+      <c r="CM14" s="15"/>
+      <c r="CN14" s="15"/>
     </row>
-    <row r="15" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="6"/>
-      <c r="J15" s="1"/>
+    <row r="15" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="E15" s="6"/>
+      <c r="I15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="16"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="15"/>
+      <c r="X15" s="20"/>
       <c r="Y15" s="21"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="16"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="16"/>
-      <c r="AX15" s="10"/>
-      <c r="AY15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="16"/>
-      <c r="BL15" s="10"/>
-      <c r="BM15" s="16"/>
-      <c r="BS15" s="10"/>
-      <c r="BT15" s="16"/>
-      <c r="BZ15" s="10"/>
-      <c r="CA15" s="16"/>
-      <c r="CG15" s="16"/>
-      <c r="CH15" s="16"/>
-      <c r="CN15" s="16"/>
-      <c r="CO15" s="16"/>
+      <c r="Z15" s="21"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="15"/>
+      <c r="AP15" s="9"/>
+      <c r="AQ15" s="15"/>
+      <c r="AW15" s="9"/>
+      <c r="AX15" s="9"/>
+      <c r="BD15" s="9"/>
+      <c r="BE15" s="15"/>
+      <c r="BK15" s="9"/>
+      <c r="BL15" s="15"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="15"/>
+      <c r="BY15" s="9"/>
+      <c r="BZ15" s="15"/>
+      <c r="CF15" s="15"/>
+      <c r="CG15" s="15"/>
+      <c r="CM15" s="15"/>
+      <c r="CN15" s="15"/>
     </row>
-    <row r="16" spans="2:115" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="D16" s="4"/>
-      <c r="F16" s="6"/>
-      <c r="J16" s="1"/>
+    <row r="16" spans="1:114" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="I16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="16"/>
-      <c r="Y16" s="21"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="16"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="16"/>
-      <c r="AX16" s="10"/>
-      <c r="AY16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="16"/>
-      <c r="BL16" s="10"/>
-      <c r="BM16" s="16"/>
-      <c r="BS16" s="10"/>
-      <c r="BT16" s="16"/>
-      <c r="BZ16" s="10"/>
-      <c r="CA16" s="16"/>
-      <c r="CG16" s="16"/>
-      <c r="CH16" s="16"/>
-      <c r="CN16" s="16"/>
-      <c r="CO16" s="16"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="15"/>
+      <c r="X16" s="20"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="15"/>
+      <c r="AP16" s="9"/>
+      <c r="AQ16" s="15"/>
+      <c r="AW16" s="9"/>
+      <c r="AX16" s="9"/>
+      <c r="BD16" s="9"/>
+      <c r="BE16" s="15"/>
+      <c r="BK16" s="9"/>
+      <c r="BL16" s="15"/>
+      <c r="BR16" s="9"/>
+      <c r="BS16" s="15"/>
+      <c r="BY16" s="9"/>
+      <c r="BZ16" s="15"/>
+      <c r="CF16" s="15"/>
+      <c r="CG16" s="15"/>
+      <c r="CM16" s="15"/>
+      <c r="CN16" s="15"/>
     </row>
-    <row r="17" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="D17" s="4"/>
-      <c r="F17" s="6"/>
-      <c r="J17" s="1"/>
+    <row r="17" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="E17" s="6"/>
+      <c r="I17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="16"/>
-      <c r="Z17" s="22"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="21"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="16"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="16"/>
-      <c r="AX17" s="10"/>
-      <c r="AY17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="16"/>
-      <c r="BL17" s="10"/>
-      <c r="BM17" s="16"/>
-      <c r="BS17" s="10"/>
-      <c r="BT17" s="16"/>
-      <c r="BZ17" s="10"/>
-      <c r="CA17" s="16"/>
-      <c r="CG17" s="16"/>
-      <c r="CH17" s="16"/>
-      <c r="CN17" s="16"/>
-      <c r="CO17" s="16"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="15"/>
+      <c r="Y17" s="21"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="20"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="15"/>
+      <c r="AP17" s="9"/>
+      <c r="AQ17" s="15"/>
+      <c r="AW17" s="9"/>
+      <c r="AX17" s="9"/>
+      <c r="BD17" s="9"/>
+      <c r="BE17" s="15"/>
+      <c r="BK17" s="9"/>
+      <c r="BL17" s="15"/>
+      <c r="BR17" s="9"/>
+      <c r="BS17" s="15"/>
+      <c r="BY17" s="9"/>
+      <c r="BZ17" s="15"/>
+      <c r="CF17" s="15"/>
+      <c r="CG17" s="15"/>
+      <c r="CM17" s="15"/>
+      <c r="CN17" s="15"/>
     </row>
-    <row r="18" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="D18" s="4"/>
-      <c r="F18" s="6"/>
-      <c r="J18" s="1"/>
+    <row r="18" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="6"/>
+      <c r="I18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="16"/>
-      <c r="Z18" s="22"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="21"/>
-      <c r="AF18" s="21"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="16"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="16"/>
-      <c r="AX18" s="10"/>
-      <c r="AY18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="16"/>
-      <c r="BL18" s="10"/>
-      <c r="BM18" s="16"/>
-      <c r="BS18" s="10"/>
-      <c r="BT18" s="16"/>
-      <c r="BZ18" s="10"/>
-      <c r="CA18" s="16"/>
-      <c r="CG18" s="16"/>
-      <c r="CH18" s="16"/>
-      <c r="CN18" s="16"/>
-      <c r="CO18" s="16"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="15"/>
+      <c r="Y18" s="21"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="15"/>
+      <c r="AP18" s="9"/>
+      <c r="AQ18" s="15"/>
+      <c r="AW18" s="9"/>
+      <c r="AX18" s="9"/>
+      <c r="BD18" s="9"/>
+      <c r="BE18" s="15"/>
+      <c r="BK18" s="9"/>
+      <c r="BL18" s="15"/>
+      <c r="BR18" s="9"/>
+      <c r="BS18" s="15"/>
+      <c r="BY18" s="9"/>
+      <c r="BZ18" s="15"/>
+      <c r="CF18" s="15"/>
+      <c r="CG18" s="15"/>
+      <c r="CM18" s="15"/>
+      <c r="CN18" s="15"/>
     </row>
-    <row r="19" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="D19" s="4"/>
-      <c r="F19" s="6"/>
-      <c r="J19" s="1"/>
+    <row r="19" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="6"/>
+      <c r="I19" s="1"/>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="16"/>
-      <c r="AA19" s="22"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AF19" s="21"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="16"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="16"/>
-      <c r="AX19" s="10"/>
-      <c r="AY19" s="10"/>
-      <c r="BE19" s="10"/>
-      <c r="BF19" s="16"/>
-      <c r="BL19" s="10"/>
-      <c r="BM19" s="16"/>
-      <c r="BS19" s="10"/>
-      <c r="BT19" s="16"/>
-      <c r="BZ19" s="10"/>
-      <c r="CA19" s="16"/>
-      <c r="CG19" s="16"/>
-      <c r="CH19" s="16"/>
-      <c r="CN19" s="16"/>
-      <c r="CO19" s="16"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="15"/>
+      <c r="Z19" s="21"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
+      <c r="AE19" s="20"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="15"/>
+      <c r="AP19" s="9"/>
+      <c r="AQ19" s="15"/>
+      <c r="AW19" s="9"/>
+      <c r="AX19" s="9"/>
+      <c r="BD19" s="9"/>
+      <c r="BE19" s="15"/>
+      <c r="BK19" s="9"/>
+      <c r="BL19" s="15"/>
+      <c r="BR19" s="9"/>
+      <c r="BS19" s="15"/>
+      <c r="BY19" s="9"/>
+      <c r="BZ19" s="15"/>
+      <c r="CF19" s="15"/>
+      <c r="CG19" s="15"/>
+      <c r="CM19" s="15"/>
+      <c r="CN19" s="15"/>
     </row>
-    <row r="20" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="D20" s="4"/>
-      <c r="F20" s="6"/>
-      <c r="J20" s="1"/>
+    <row r="20" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="6"/>
+      <c r="I20" s="1"/>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="16"/>
-      <c r="AA20" s="22"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AF20" s="21"/>
-      <c r="AG20" s="21"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="16"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="16"/>
-      <c r="AX20" s="10"/>
-      <c r="AY20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="16"/>
-      <c r="BL20" s="10"/>
-      <c r="BM20" s="16"/>
-      <c r="BS20" s="10"/>
-      <c r="BT20" s="16"/>
-      <c r="BZ20" s="10"/>
-      <c r="CA20" s="16"/>
-      <c r="CG20" s="16"/>
-      <c r="CH20" s="16"/>
-      <c r="CN20" s="16"/>
-      <c r="CO20" s="16"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="15"/>
+      <c r="Z20" s="21"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="15"/>
+      <c r="AP20" s="9"/>
+      <c r="AQ20" s="15"/>
+      <c r="AW20" s="9"/>
+      <c r="AX20" s="9"/>
+      <c r="BD20" s="9"/>
+      <c r="BE20" s="15"/>
+      <c r="BK20" s="9"/>
+      <c r="BL20" s="15"/>
+      <c r="BR20" s="9"/>
+      <c r="BS20" s="15"/>
+      <c r="BY20" s="9"/>
+      <c r="BZ20" s="15"/>
+      <c r="CF20" s="15"/>
+      <c r="CG20" s="15"/>
+      <c r="CM20" s="15"/>
+      <c r="CN20" s="15"/>
     </row>
-    <row r="21" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="D21" s="4"/>
-      <c r="F21" s="6"/>
-      <c r="J21" s="1"/>
+    <row r="21" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="I21" s="1"/>
+      <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="16"/>
-      <c r="AB21" s="22"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AG21" s="21"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="16"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="16"/>
-      <c r="AX21" s="10"/>
-      <c r="AY21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="16"/>
-      <c r="BL21" s="10"/>
-      <c r="BM21" s="16"/>
-      <c r="BS21" s="10"/>
-      <c r="BT21" s="16"/>
-      <c r="BZ21" s="10"/>
-      <c r="CA21" s="16"/>
-      <c r="CG21" s="16"/>
-      <c r="CH21" s="16"/>
-      <c r="CN21" s="16"/>
-      <c r="CO21" s="16"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="15"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15"/>
+      <c r="AF21" s="20"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="15"/>
+      <c r="AP21" s="9"/>
+      <c r="AQ21" s="15"/>
+      <c r="AW21" s="9"/>
+      <c r="AX21" s="9"/>
+      <c r="BD21" s="9"/>
+      <c r="BE21" s="15"/>
+      <c r="BK21" s="9"/>
+      <c r="BL21" s="15"/>
+      <c r="BR21" s="9"/>
+      <c r="BS21" s="15"/>
+      <c r="BY21" s="9"/>
+      <c r="BZ21" s="15"/>
+      <c r="CF21" s="15"/>
+      <c r="CG21" s="15"/>
+      <c r="CM21" s="15"/>
+      <c r="CN21" s="15"/>
     </row>
-    <row r="22" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="D22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="J22" s="1"/>
+    <row r="22" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="6"/>
+      <c r="I22" s="1"/>
+      <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="16"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="16"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="16"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="16"/>
-      <c r="BL22" s="10"/>
-      <c r="BM22" s="16"/>
-      <c r="BS22" s="10"/>
-      <c r="BT22" s="16"/>
-      <c r="BZ22" s="10"/>
-      <c r="CA22" s="16"/>
-      <c r="CG22" s="16"/>
-      <c r="CH22" s="16"/>
-      <c r="CN22" s="16"/>
-      <c r="CO22" s="16"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="15"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="15"/>
+      <c r="AP22" s="9"/>
+      <c r="AQ22" s="15"/>
+      <c r="AW22" s="9"/>
+      <c r="AX22" s="9"/>
+      <c r="BD22" s="9"/>
+      <c r="BE22" s="15"/>
+      <c r="BK22" s="9"/>
+      <c r="BL22" s="15"/>
+      <c r="BR22" s="9"/>
+      <c r="BS22" s="15"/>
+      <c r="BY22" s="9"/>
+      <c r="BZ22" s="15"/>
+      <c r="CF22" s="15"/>
+      <c r="CG22" s="15"/>
+      <c r="CM22" s="15"/>
+      <c r="CN22" s="15"/>
     </row>
-    <row r="23" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="D23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="J23" s="1"/>
+    <row r="23" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="E23" s="6"/>
+      <c r="I23" s="1"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="21"/>
-      <c r="AH23" s="21"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="16"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="16"/>
-      <c r="AX23" s="10"/>
-      <c r="AY23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="16"/>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="16"/>
-      <c r="BS23" s="10"/>
-      <c r="BT23" s="16"/>
-      <c r="BZ23" s="10"/>
-      <c r="CA23" s="16"/>
-      <c r="CG23" s="16"/>
-      <c r="CH23" s="16"/>
-      <c r="CN23" s="16"/>
-      <c r="CO23" s="16"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="15"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="15"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="15"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="15"/>
+      <c r="BK23" s="9"/>
+      <c r="BL23" s="15"/>
+      <c r="BR23" s="9"/>
+      <c r="BS23" s="15"/>
+      <c r="BY23" s="9"/>
+      <c r="BZ23" s="15"/>
+      <c r="CF23" s="15"/>
+      <c r="CG23" s="15"/>
+      <c r="CM23" s="15"/>
+      <c r="CN23" s="15"/>
     </row>
-    <row r="24" spans="2:93" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="D24" s="4"/>
-      <c r="F24" s="6"/>
-      <c r="J24" s="1"/>
+    <row r="24" spans="1:92" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="E24" s="6"/>
+      <c r="I24" s="1"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="16"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="21"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="20"/>
+      <c r="AG24" s="20"/>
       <c r="AH24" s="21"/>
-      <c r="AI24" s="22"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="16"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="16"/>
-      <c r="AX24" s="10"/>
-      <c r="AY24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="16"/>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="16"/>
-      <c r="BS24" s="10"/>
-      <c r="BT24" s="16"/>
-      <c r="BZ24" s="10"/>
-      <c r="CA24" s="16"/>
-      <c r="CG24" s="16"/>
-      <c r="CH24" s="16"/>
-      <c r="CN24" s="16"/>
-      <c r="CO24" s="16"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="15"/>
+      <c r="AP24" s="9"/>
+      <c r="AQ24" s="15"/>
+      <c r="AW24" s="9"/>
+      <c r="AX24" s="9"/>
+      <c r="BD24" s="9"/>
+      <c r="BE24" s="15"/>
+      <c r="BK24" s="9"/>
+      <c r="BL24" s="15"/>
+      <c r="BR24" s="9"/>
+      <c r="BS24" s="15"/>
+      <c r="BY24" s="9"/>
+      <c r="BZ24" s="15"/>
+      <c r="CF24" s="15"/>
+      <c r="CG24" s="15"/>
+      <c r="CM24" s="15"/>
+      <c r="CN24" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="V1:AY1"/>
-    <mergeCell ref="AZ1:CD1"/>
-    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="H1:H3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="U1:AX1"/>
+    <mergeCell ref="AY1:CC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DH24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="8" customWidth="1"/>
+    <col min="7" max="18" width="3.625" style="2" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="2.625" style="10" customWidth="1"/>
+    <col min="20" max="22" width="2.625" style="17" customWidth="1"/>
+    <col min="23" max="25" width="2.625" style="10" customWidth="1"/>
+    <col min="26" max="31" width="2.625" style="17" customWidth="1"/>
+    <col min="32" max="33" width="2.625" style="10" customWidth="1"/>
+    <col min="34" max="38" width="2.625" style="17" customWidth="1"/>
+    <col min="39" max="40" width="2.625" style="10" customWidth="1"/>
+    <col min="41" max="46" width="2.625" style="17" customWidth="1"/>
+    <col min="47" max="47" width="2.875" style="10" customWidth="1"/>
+    <col min="48" max="48" width="3.25" style="10" customWidth="1"/>
+    <col min="49" max="49" width="3.375" style="10" customWidth="1"/>
+    <col min="50" max="50" width="2.875" style="17" customWidth="1"/>
+    <col min="51" max="51" width="3.25" style="17" customWidth="1"/>
+    <col min="52" max="52" width="2.875" style="17" customWidth="1"/>
+    <col min="53" max="53" width="3.25" style="10" customWidth="1"/>
+    <col min="54" max="54" width="3.5" style="10" customWidth="1"/>
+    <col min="55" max="55" width="3" style="17" customWidth="1"/>
+    <col min="56" max="56" width="3.25" style="17" customWidth="1"/>
+    <col min="57" max="57" width="3.125" style="17" customWidth="1"/>
+    <col min="58" max="58" width="3" style="17" customWidth="1"/>
+    <col min="59" max="59" width="3.25" style="17" customWidth="1"/>
+    <col min="60" max="60" width="2.75" style="10" customWidth="1"/>
+    <col min="61" max="61" width="2.875" style="10" customWidth="1"/>
+    <col min="62" max="62" width="3.25" style="17" customWidth="1"/>
+    <col min="63" max="63" width="3.125" style="17" customWidth="1"/>
+    <col min="64" max="64" width="3" style="17" customWidth="1"/>
+    <col min="65" max="65" width="2.875" style="17" customWidth="1"/>
+    <col min="66" max="66" width="3.125" style="17" customWidth="1"/>
+    <col min="67" max="67" width="3.375" style="10" customWidth="1"/>
+    <col min="68" max="68" width="2.875" style="10" customWidth="1"/>
+    <col min="69" max="73" width="2.625" style="17" customWidth="1"/>
+    <col min="74" max="75" width="2.625" style="10" customWidth="1"/>
+    <col min="76" max="100" width="2.625" style="17" customWidth="1"/>
+    <col min="101" max="112" width="2.625" style="2" customWidth="1"/>
+    <col min="113" max="16384" width="3.125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="26"/>
+      <c r="AW1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="AX1" s="28"/>
+      <c r="AY1" s="28"/>
+      <c r="AZ1" s="28"/>
+      <c r="BA1" s="28"/>
+      <c r="BB1" s="28"/>
+      <c r="BC1" s="28"/>
+      <c r="BD1" s="28"/>
+      <c r="BE1" s="28"/>
+      <c r="BF1" s="28"/>
+      <c r="BG1" s="28"/>
+      <c r="BH1" s="28"/>
+      <c r="BI1" s="28"/>
+      <c r="BJ1" s="28"/>
+      <c r="BK1" s="28"/>
+      <c r="BL1" s="28"/>
+      <c r="BM1" s="28"/>
+      <c r="BN1" s="28"/>
+      <c r="BO1" s="28"/>
+      <c r="BP1" s="28"/>
+      <c r="BQ1" s="28"/>
+      <c r="BR1" s="28"/>
+      <c r="BS1" s="28"/>
+      <c r="BT1" s="28"/>
+      <c r="BU1" s="28"/>
+      <c r="BV1" s="28"/>
+      <c r="BW1" s="28"/>
+      <c r="BX1" s="28"/>
+      <c r="BY1" s="28"/>
+      <c r="BZ1" s="28"/>
+      <c r="CA1" s="29"/>
+      <c r="CB1" s="16"/>
+      <c r="CC1" s="16"/>
+      <c r="CD1" s="16"/>
+      <c r="CE1" s="16"/>
+      <c r="CF1" s="16"/>
+      <c r="CG1" s="16"/>
+      <c r="CH1" s="16"/>
+      <c r="CI1" s="16"/>
+      <c r="CJ1" s="16"/>
+      <c r="CK1" s="16"/>
+      <c r="CL1" s="16"/>
+      <c r="CM1" s="16"/>
+      <c r="CN1" s="16"/>
+      <c r="CO1" s="16"/>
+      <c r="CP1" s="16"/>
+      <c r="CQ1" s="16"/>
+      <c r="CR1" s="16"/>
+      <c r="CS1" s="16"/>
+      <c r="CT1" s="16"/>
+      <c r="CU1" s="15"/>
+      <c r="CV1" s="15"/>
+      <c r="CW1" s="22"/>
+      <c r="CX1" s="22"/>
+    </row>
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AR2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="AT2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AU2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BC2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BD2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BJ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BK2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BM2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BN2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BP2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BQ2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="BT2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="BU2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="BV2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="BX2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="BY2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="BZ2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="CA2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="CB2" s="15"/>
+      <c r="CC2" s="15"/>
+      <c r="CD2" s="15"/>
+      <c r="CE2" s="15"/>
+      <c r="CF2" s="15"/>
+      <c r="CG2" s="15"/>
+      <c r="CH2" s="15"/>
+      <c r="CI2" s="15"/>
+      <c r="CJ2" s="15"/>
+      <c r="CK2" s="15"/>
+      <c r="CL2" s="15"/>
+      <c r="CM2" s="15"/>
+      <c r="CN2" s="15"/>
+      <c r="CO2" s="15"/>
+      <c r="CP2" s="15"/>
+      <c r="CQ2" s="15"/>
+      <c r="CR2" s="15"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="18"/>
+      <c r="CU2" s="15"/>
+      <c r="CV2" s="15"/>
+      <c r="CW2" s="22"/>
+      <c r="CX2" s="22"/>
+    </row>
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>7</v>
+      </c>
+      <c r="N3" s="3">
+        <v>8</v>
+      </c>
+      <c r="O3" s="3">
+        <v>9</v>
+      </c>
+      <c r="P3" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="22">
+        <v>11</v>
+      </c>
+      <c r="R3" s="3">
+        <v>12</v>
+      </c>
+      <c r="S3" s="9">
+        <v>1</v>
+      </c>
+      <c r="T3" s="15">
+        <v>2</v>
+      </c>
+      <c r="U3" s="15">
+        <v>3</v>
+      </c>
+      <c r="V3" s="15">
+        <v>4</v>
+      </c>
+      <c r="W3" s="9">
+        <v>5</v>
+      </c>
+      <c r="X3" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>8</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>9</v>
+      </c>
+      <c r="AB3" s="15">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="15">
+        <v>11</v>
+      </c>
+      <c r="AD3" s="15">
+        <v>12</v>
+      </c>
+      <c r="AE3" s="15">
+        <v>13</v>
+      </c>
+      <c r="AF3" s="9">
+        <v>14</v>
+      </c>
+      <c r="AG3" s="9">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="15">
+        <v>16</v>
+      </c>
+      <c r="AI3" s="15">
+        <v>17</v>
+      </c>
+      <c r="AJ3" s="15">
+        <v>18</v>
+      </c>
+      <c r="AK3" s="15">
+        <v>19</v>
+      </c>
+      <c r="AL3" s="15">
+        <v>20</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>21</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>22</v>
+      </c>
+      <c r="AO3" s="15">
+        <v>23</v>
+      </c>
+      <c r="AP3" s="15">
+        <v>24</v>
+      </c>
+      <c r="AQ3" s="15">
+        <v>25</v>
+      </c>
+      <c r="AR3" s="15">
+        <v>26</v>
+      </c>
+      <c r="AS3" s="15">
+        <v>27</v>
+      </c>
+      <c r="AT3" s="15">
+        <v>28</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>29</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>30</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="19">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="19">
+        <v>3</v>
+      </c>
+      <c r="AZ3" s="19">
+        <v>4</v>
+      </c>
+      <c r="BA3" s="11">
+        <v>5</v>
+      </c>
+      <c r="BB3" s="11">
+        <v>6</v>
+      </c>
+      <c r="BC3" s="19">
+        <v>7</v>
+      </c>
+      <c r="BD3" s="19">
+        <v>8</v>
+      </c>
+      <c r="BE3" s="19">
+        <v>9</v>
+      </c>
+      <c r="BF3" s="19">
+        <v>10</v>
+      </c>
+      <c r="BG3" s="19">
+        <v>11</v>
+      </c>
+      <c r="BH3" s="11">
+        <v>12</v>
+      </c>
+      <c r="BI3" s="11">
+        <v>13</v>
+      </c>
+      <c r="BJ3" s="19">
+        <v>14</v>
+      </c>
+      <c r="BK3" s="19">
+        <v>15</v>
+      </c>
+      <c r="BL3" s="19">
+        <v>16</v>
+      </c>
+      <c r="BM3" s="19">
+        <v>17</v>
+      </c>
+      <c r="BN3" s="19">
+        <v>18</v>
+      </c>
+      <c r="BO3" s="11">
+        <v>19</v>
+      </c>
+      <c r="BP3" s="11">
+        <v>20</v>
+      </c>
+      <c r="BQ3" s="19">
+        <v>21</v>
+      </c>
+      <c r="BR3" s="19">
+        <v>22</v>
+      </c>
+      <c r="BS3" s="19">
+        <v>23</v>
+      </c>
+      <c r="BT3" s="19">
+        <v>24</v>
+      </c>
+      <c r="BU3" s="19">
+        <v>25</v>
+      </c>
+      <c r="BV3" s="11">
+        <v>26</v>
+      </c>
+      <c r="BW3" s="11">
+        <v>27</v>
+      </c>
+      <c r="BX3" s="19">
+        <v>28</v>
+      </c>
+      <c r="BY3" s="19">
+        <v>29</v>
+      </c>
+      <c r="BZ3" s="19">
+        <v>30</v>
+      </c>
+      <c r="CA3" s="19">
+        <v>31</v>
+      </c>
+      <c r="CB3" s="19"/>
+      <c r="CC3" s="19"/>
+      <c r="CD3" s="19"/>
+      <c r="CE3" s="19"/>
+      <c r="CF3" s="19"/>
+      <c r="CG3" s="19"/>
+      <c r="CH3" s="19"/>
+      <c r="CI3" s="19"/>
+      <c r="CJ3" s="19"/>
+      <c r="CK3" s="19"/>
+      <c r="CL3" s="19"/>
+      <c r="CM3" s="19"/>
+      <c r="CN3" s="19"/>
+      <c r="CO3" s="19"/>
+      <c r="CP3" s="19"/>
+      <c r="CQ3" s="19"/>
+      <c r="CR3" s="19"/>
+      <c r="CS3" s="19"/>
+      <c r="CT3" s="19"/>
+      <c r="CU3" s="19"/>
+      <c r="CV3" s="19"/>
+      <c r="CW3" s="3"/>
+      <c r="CX3" s="3"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
+      <c r="DF3" s="5"/>
+      <c r="DG3" s="5"/>
+      <c r="DH3" s="5"/>
+    </row>
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="20"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="15"/>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="15"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="15"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="15"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="15"/>
+      <c r="BW4" s="9"/>
+      <c r="BX4" s="15"/>
+      <c r="CD4" s="15"/>
+      <c r="CE4" s="15"/>
+      <c r="CK4" s="15"/>
+      <c r="CL4" s="15"/>
+    </row>
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="20"/>
+      <c r="Z5" s="15"/>
+      <c r="AA5" s="15"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="15"/>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="15"/>
+      <c r="AU5" s="9"/>
+      <c r="AV5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="15"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="15"/>
+      <c r="BP5" s="9"/>
+      <c r="BQ5" s="15"/>
+      <c r="BW5" s="9"/>
+      <c r="BX5" s="15"/>
+      <c r="CD5" s="15"/>
+      <c r="CE5" s="15"/>
+      <c r="CK5" s="15"/>
+      <c r="CL5" s="15"/>
+    </row>
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="15"/>
+      <c r="V6" s="20"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="15"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="15"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="15"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="15"/>
+      <c r="BP6" s="9"/>
+      <c r="BQ6" s="15"/>
+      <c r="BW6" s="9"/>
+      <c r="BX6" s="15"/>
+      <c r="CD6" s="15"/>
+      <c r="CE6" s="15"/>
+      <c r="CK6" s="15"/>
+      <c r="CL6" s="15"/>
+    </row>
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="G7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="15"/>
+      <c r="V7" s="20"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="15"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="15"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="15"/>
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="9"/>
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="15"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="15"/>
+      <c r="BP7" s="9"/>
+      <c r="BQ7" s="15"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="15"/>
+      <c r="CD7" s="15"/>
+      <c r="CE7" s="15"/>
+      <c r="CK7" s="15"/>
+      <c r="CL7" s="15"/>
+    </row>
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="G8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="15"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="21"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="15"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="15"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="15"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="9"/>
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="15"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="15"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="15"/>
+      <c r="BW8" s="9"/>
+      <c r="BX8" s="15"/>
+      <c r="CD8" s="15"/>
+      <c r="CE8" s="15"/>
+      <c r="CK8" s="15"/>
+      <c r="CL8" s="15"/>
+    </row>
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="15"/>
+      <c r="W9" s="21"/>
+      <c r="Z9" s="15"/>
+      <c r="AA9" s="15"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="15"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="15"/>
+      <c r="AU9" s="9"/>
+      <c r="AV9" s="9"/>
+      <c r="BB9" s="9"/>
+      <c r="BC9" s="15"/>
+      <c r="BI9" s="9"/>
+      <c r="BJ9" s="15"/>
+      <c r="BP9" s="9"/>
+      <c r="BQ9" s="15"/>
+      <c r="BW9" s="9"/>
+      <c r="BX9" s="15"/>
+      <c r="CD9" s="15"/>
+      <c r="CE9" s="15"/>
+      <c r="CK9" s="15"/>
+      <c r="CL9" s="15"/>
+    </row>
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="15"/>
+      <c r="X10" s="21"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="15"/>
+      <c r="AN10" s="9"/>
+      <c r="AO10" s="15"/>
+      <c r="AU10" s="9"/>
+      <c r="AV10" s="9"/>
+      <c r="BB10" s="9"/>
+      <c r="BC10" s="15"/>
+      <c r="BI10" s="9"/>
+      <c r="BJ10" s="15"/>
+      <c r="BP10" s="9"/>
+      <c r="BQ10" s="15"/>
+      <c r="BW10" s="9"/>
+      <c r="BX10" s="15"/>
+      <c r="CD10" s="15"/>
+      <c r="CE10" s="15"/>
+      <c r="CK10" s="15"/>
+      <c r="CL10" s="15"/>
+    </row>
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="G11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="15"/>
+      <c r="X11" s="21"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="15"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="15"/>
+      <c r="AN11" s="9"/>
+      <c r="AO11" s="15"/>
+      <c r="AU11" s="9"/>
+      <c r="AV11" s="9"/>
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="15"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="15"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="15"/>
+      <c r="BW11" s="9"/>
+      <c r="BX11" s="15"/>
+      <c r="CD11" s="15"/>
+      <c r="CE11" s="15"/>
+      <c r="CK11" s="15"/>
+      <c r="CL11" s="15"/>
+    </row>
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="15"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="15"/>
+      <c r="AA12" s="15"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="15"/>
+      <c r="AN12" s="9"/>
+      <c r="AO12" s="15"/>
+      <c r="AU12" s="9"/>
+      <c r="AV12" s="9"/>
+      <c r="BB12" s="9"/>
+      <c r="BC12" s="15"/>
+      <c r="BI12" s="9"/>
+      <c r="BJ12" s="15"/>
+      <c r="BP12" s="9"/>
+      <c r="BQ12" s="15"/>
+      <c r="BW12" s="9"/>
+      <c r="BX12" s="15"/>
+      <c r="CD12" s="15"/>
+      <c r="CE12" s="15"/>
+      <c r="CK12" s="15"/>
+      <c r="CL12" s="15"/>
+    </row>
+    <row r="13" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="G13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="Z13" s="15"/>
+      <c r="AA13" s="15"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="15"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="15"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="15"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="15"/>
+      <c r="BP13" s="9"/>
+      <c r="BQ13" s="15"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="15"/>
+      <c r="CD13" s="15"/>
+      <c r="CE13" s="15"/>
+      <c r="CK13" s="15"/>
+      <c r="CL13" s="15"/>
+    </row>
+    <row r="14" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="G14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="21"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="15"/>
+      <c r="AN14" s="9"/>
+      <c r="AO14" s="15"/>
+      <c r="AU14" s="9"/>
+      <c r="AV14" s="9"/>
+      <c r="BB14" s="9"/>
+      <c r="BC14" s="15"/>
+      <c r="BI14" s="9"/>
+      <c r="BJ14" s="15"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="15"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="15"/>
+      <c r="CD14" s="15"/>
+      <c r="CE14" s="15"/>
+      <c r="CK14" s="15"/>
+      <c r="CL14" s="15"/>
+    </row>
+    <row r="15" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="G15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="15"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="15"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="15"/>
+      <c r="AU15" s="9"/>
+      <c r="AV15" s="9"/>
+      <c r="BB15" s="9"/>
+      <c r="BC15" s="15"/>
+      <c r="BI15" s="9"/>
+      <c r="BJ15" s="15"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="15"/>
+      <c r="BW15" s="9"/>
+      <c r="BX15" s="15"/>
+      <c r="CD15" s="15"/>
+      <c r="CE15" s="15"/>
+      <c r="CK15" s="15"/>
+      <c r="CL15" s="15"/>
+    </row>
+    <row r="16" spans="1:112" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="G16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="15"/>
+      <c r="V16" s="20"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="15"/>
+      <c r="AN16" s="9"/>
+      <c r="AO16" s="15"/>
+      <c r="AU16" s="9"/>
+      <c r="AV16" s="9"/>
+      <c r="BB16" s="9"/>
+      <c r="BC16" s="15"/>
+      <c r="BI16" s="9"/>
+      <c r="BJ16" s="15"/>
+      <c r="BP16" s="9"/>
+      <c r="BQ16" s="15"/>
+      <c r="BW16" s="9"/>
+      <c r="BX16" s="15"/>
+      <c r="CD16" s="15"/>
+      <c r="CE16" s="15"/>
+      <c r="CK16" s="15"/>
+      <c r="CL16" s="15"/>
+    </row>
+    <row r="17" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="G17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="15"/>
+      <c r="W17" s="21"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="20"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="15"/>
+      <c r="AN17" s="9"/>
+      <c r="AO17" s="15"/>
+      <c r="AU17" s="9"/>
+      <c r="AV17" s="9"/>
+      <c r="BB17" s="9"/>
+      <c r="BC17" s="15"/>
+      <c r="BI17" s="9"/>
+      <c r="BJ17" s="15"/>
+      <c r="BP17" s="9"/>
+      <c r="BQ17" s="15"/>
+      <c r="BW17" s="9"/>
+      <c r="BX17" s="15"/>
+      <c r="CD17" s="15"/>
+      <c r="CE17" s="15"/>
+      <c r="CK17" s="15"/>
+      <c r="CL17" s="15"/>
+    </row>
+    <row r="18" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="C18" s="4"/>
+      <c r="G18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="15"/>
+      <c r="W18" s="21"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="15"/>
+      <c r="AN18" s="9"/>
+      <c r="AO18" s="15"/>
+      <c r="AU18" s="9"/>
+      <c r="AV18" s="9"/>
+      <c r="BB18" s="9"/>
+      <c r="BC18" s="15"/>
+      <c r="BI18" s="9"/>
+      <c r="BJ18" s="15"/>
+      <c r="BP18" s="9"/>
+      <c r="BQ18" s="15"/>
+      <c r="BW18" s="9"/>
+      <c r="BX18" s="15"/>
+      <c r="CD18" s="15"/>
+      <c r="CE18" s="15"/>
+      <c r="CK18" s="15"/>
+      <c r="CL18" s="15"/>
+    </row>
+    <row r="19" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="G19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="15"/>
+      <c r="X19" s="21"/>
+      <c r="Z19" s="15"/>
+      <c r="AA19" s="15"/>
+      <c r="AC19" s="20"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="15"/>
+      <c r="AN19" s="9"/>
+      <c r="AO19" s="15"/>
+      <c r="AU19" s="9"/>
+      <c r="AV19" s="9"/>
+      <c r="BB19" s="9"/>
+      <c r="BC19" s="15"/>
+      <c r="BI19" s="9"/>
+      <c r="BJ19" s="15"/>
+      <c r="BP19" s="9"/>
+      <c r="BQ19" s="15"/>
+      <c r="BW19" s="9"/>
+      <c r="BX19" s="15"/>
+      <c r="CD19" s="15"/>
+      <c r="CE19" s="15"/>
+      <c r="CK19" s="15"/>
+      <c r="CL19" s="15"/>
+    </row>
+    <row r="20" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="G20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="15"/>
+      <c r="X20" s="21"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="15"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="15"/>
+      <c r="AN20" s="9"/>
+      <c r="AO20" s="15"/>
+      <c r="AU20" s="9"/>
+      <c r="AV20" s="9"/>
+      <c r="BB20" s="9"/>
+      <c r="BC20" s="15"/>
+      <c r="BI20" s="9"/>
+      <c r="BJ20" s="15"/>
+      <c r="BP20" s="9"/>
+      <c r="BQ20" s="15"/>
+      <c r="BW20" s="9"/>
+      <c r="BX20" s="15"/>
+      <c r="CD20" s="15"/>
+      <c r="CE20" s="15"/>
+      <c r="CK20" s="15"/>
+      <c r="CL20" s="15"/>
+    </row>
+    <row r="21" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="G21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="15"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="15"/>
+      <c r="AD21" s="20"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="15"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="15"/>
+      <c r="AU21" s="9"/>
+      <c r="AV21" s="9"/>
+      <c r="BB21" s="9"/>
+      <c r="BC21" s="15"/>
+      <c r="BI21" s="9"/>
+      <c r="BJ21" s="15"/>
+      <c r="BP21" s="9"/>
+      <c r="BQ21" s="15"/>
+      <c r="BW21" s="9"/>
+      <c r="BX21" s="15"/>
+      <c r="CD21" s="15"/>
+      <c r="CE21" s="15"/>
+      <c r="CK21" s="15"/>
+      <c r="CL21" s="15"/>
+    </row>
+    <row r="22" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="C22" s="4"/>
+      <c r="G22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="15"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="15"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="15"/>
+      <c r="AN22" s="9"/>
+      <c r="AO22" s="15"/>
+      <c r="AU22" s="9"/>
+      <c r="AV22" s="9"/>
+      <c r="BB22" s="9"/>
+      <c r="BC22" s="15"/>
+      <c r="BI22" s="9"/>
+      <c r="BJ22" s="15"/>
+      <c r="BP22" s="9"/>
+      <c r="BQ22" s="15"/>
+      <c r="BW22" s="9"/>
+      <c r="BX22" s="15"/>
+      <c r="CD22" s="15"/>
+      <c r="CE22" s="15"/>
+      <c r="CK22" s="15"/>
+      <c r="CL22" s="15"/>
+    </row>
+    <row r="23" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="G23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="15"/>
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="15"/>
+      <c r="AB23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="15"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="15"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="15"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="15"/>
+      <c r="BP23" s="9"/>
+      <c r="BQ23" s="15"/>
+      <c r="BW23" s="9"/>
+      <c r="BX23" s="15"/>
+      <c r="CD23" s="15"/>
+      <c r="CE23" s="15"/>
+      <c r="CK23" s="15"/>
+      <c r="CL23" s="15"/>
+    </row>
+    <row r="24" spans="1:90" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="G24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="21"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="15"/>
+      <c r="AN24" s="9"/>
+      <c r="AO24" s="15"/>
+      <c r="AU24" s="9"/>
+      <c r="AV24" s="9"/>
+      <c r="BB24" s="9"/>
+      <c r="BC24" s="15"/>
+      <c r="BI24" s="9"/>
+      <c r="BJ24" s="15"/>
+      <c r="BP24" s="9"/>
+      <c r="BQ24" s="15"/>
+      <c r="BW24" s="9"/>
+      <c r="BX24" s="15"/>
+      <c r="CD24" s="15"/>
+      <c r="CE24" s="15"/>
+      <c r="CK24" s="15"/>
+      <c r="CL24" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="S1:AV1"/>
+    <mergeCell ref="AW1:CA1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>